--- a/Assets/Resources/MasterData/SkillEffectData.xlsx
+++ b/Assets/Resources/MasterData/SkillEffectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\Original\forLasengleGame\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B4565A-D612-4516-B99F-5834AB8B3AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D527C6-7AD0-4BC4-B2E1-03367EF02AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffectData" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
